--- a/biology/Botanique/Cuisse_madame/Cuisse_madame.xlsx
+++ b/biology/Botanique/Cuisse_madame/Cuisse_madame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Cuisse Madame ou Cuisse de Dame est une variété de poire précoce. Les Cuisses de Dame sont également une pâtisserie[1] que l'on retrouve en période de carnaval dans le canton du Jura (Suisse) et en Alsace. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Cuisse Madame ou Cuisse de Dame est une variété de poire précoce. Les Cuisses de Dame sont également une pâtisserie que l'on retrouve en période de carnaval dans le canton du Jura (Suisse) et en Alsace. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jargonelle ;
 Cuisse de Dame ;
@@ -543,10 +557,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Déjà présente dans les jardins de Louis XIV, c'est l'une des variétés les plus anciennes connues en France[2].
-En 1756, un exemplaire est planté à l'abbaye de Valloires (Somme). L'arbre est toujours présent, c'est l'un des plus vieux poiriers de France[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déjà présente dans les jardins de Louis XIV, c'est l'une des variétés les plus anciennes connues en France.
+En 1756, un exemplaire est planté à l'abbaye de Valloires (Somme). L'arbre est toujours présent, c'est l'un des plus vieux poiriers de France.
 </t>
         </is>
       </c>
@@ -577,24 +593,104 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Époque de floraison
-C'est une variété précoce.
-Pollinisateurs recommandés
-Mise à fruit
-Productivité
-D'une fertilité remarquable, l'arbre est d'un bois fort[2].
-Fruit
-Forme et calibre
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Époque de floraison</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une variété précoce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuisse_madame</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuisse_madame</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une fertilité remarquable, l'arbre est d'un bois fort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cuisse_madame</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuisse_madame</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forme et calibre
 Forme allongée, peau rouge et jaune à brune.
 Épiderme à maturité
-La peau est rugueuse, vert olivâtre, ponctuée de roux, lavée de rouge brun au soleil[2].
+La peau est rugueuse, vert olivâtre, ponctuée de roux, lavée de rouge brun au soleil.
 Chair
 Elle est d'un blanc jaunâtre, peu abondante en sucre et parfumée comme la Martin-Sec.
 Sujette à devenir farineuse quand elle est trop mûre.
 Date de récolte - Maturité naturelle
 Maturité en juillet, août.
-Le fruit se récolte dès juillet, suivant les régions[4].
+Le fruit se récolte dès juillet, suivant les régions.
 </t>
         </is>
       </c>
